--- a/Regning av kaloriforbruk.xlsx
+++ b/Regning av kaloriforbruk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/251458_stud_inn_no/Documents/KAN+FLS/O2-tall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE970E17-E245-4975-85DD-ADCB9305C446}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E78053-3173-4A89-AB2A-C6B2B3FB39BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
     <t>vo2_l_min</t>
   </si>
   <si>
-    <t>kacl/min</t>
-  </si>
-  <si>
-    <t>kj/min</t>
+    <t>kacl_min</t>
+  </si>
+  <si>
+    <t>kj_min</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
